--- a/other_files/所有物品.xlsx
+++ b/other_files/所有物品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktable\BTGym\other_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A921BCD3-8C8A-42B4-A2D2-699C2C3A0B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD6B3EE-7CAF-474F-9C9D-3C0437D72059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="4485" windowWidth="28770" windowHeight="15600" xr2:uid="{4B7BE60B-75FF-4204-AF7B-B6B7F46C7D91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4B7BE60B-75FF-4204-AF7B-B6B7F46C7D91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4247,8 +4247,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1081" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A640" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A1114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4277,7 +4277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -4405,7 +4405,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -4579,7 +4579,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>1225</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1226</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>113</v>
       </c>
@@ -6203,7 +6203,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>1228</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>1232</v>
       </c>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="F247" s="5"/>
     </row>
-    <row r="248" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>273</v>
       </c>
@@ -7525,7 +7525,7 @@
       <c r="E248" s="2"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>274</v>
       </c>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="F272" s="4"/>
     </row>
-    <row r="273" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>1231</v>
       </c>
@@ -8149,7 +8149,7 @@
       <c r="E302" s="2"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>332</v>
       </c>
@@ -8241,7 +8241,7 @@
       <c r="E309" s="3"/>
       <c r="F309" s="5"/>
     </row>
-    <row r="310" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>342</v>
       </c>
@@ -8403,7 +8403,7 @@
       <c r="E325" s="3"/>
       <c r="F325" s="5"/>
     </row>
-    <row r="326" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>1217</v>
       </c>
@@ -8807,7 +8807,7 @@
       <c r="E354" s="2"/>
       <c r="F354" s="4"/>
     </row>
-    <row r="355" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>1234</v>
       </c>
@@ -8925,7 +8925,7 @@
       <c r="E363" s="3"/>
       <c r="F363" s="5"/>
     </row>
-    <row r="364" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>408</v>
       </c>
@@ -8937,7 +8937,7 @@
       <c r="E364" s="2"/>
       <c r="F364" s="4"/>
     </row>
-    <row r="365" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>1236</v>
       </c>
@@ -9059,7 +9059,7 @@
       <c r="E374" s="2"/>
       <c r="F374" s="4"/>
     </row>
-    <row r="375" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>420</v>
       </c>
@@ -9177,7 +9177,7 @@
       <c r="E384" s="2"/>
       <c r="F384" s="4"/>
     </row>
-    <row r="385" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>1219</v>
       </c>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="F389" s="5"/>
     </row>
-    <row r="390" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>439</v>
       </c>
@@ -9311,7 +9311,7 @@
       <c r="E394" s="2"/>
       <c r="F394" s="4"/>
     </row>
-    <row r="395" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>445</v>
       </c>
@@ -9383,7 +9383,7 @@
       <c r="E401" s="3"/>
       <c r="F401" s="5"/>
     </row>
-    <row r="402" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>453</v>
       </c>
@@ -9491,7 +9491,7 @@
       <c r="E409" s="3"/>
       <c r="F409" s="5"/>
     </row>
-    <row r="410" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>1220</v>
       </c>
@@ -9603,7 +9603,7 @@
       <c r="E417" s="3"/>
       <c r="F417" s="5"/>
     </row>
-    <row r="418" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>473</v>
       </c>
@@ -9639,7 +9639,7 @@
       <c r="E420" s="2"/>
       <c r="F420" s="4"/>
     </row>
-    <row r="421" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>1238</v>
       </c>
@@ -9715,7 +9715,7 @@
       <c r="E426" s="2"/>
       <c r="F426" s="4"/>
     </row>
-    <row r="427" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>484</v>
       </c>
@@ -9999,7 +9999,7 @@
       <c r="E449" s="3"/>
       <c r="F449" s="5"/>
     </row>
-    <row r="450" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>509</v>
       </c>
@@ -10161,7 +10161,7 @@
       <c r="E462" s="2"/>
       <c r="F462" s="4"/>
     </row>
-    <row r="463" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>526</v>
       </c>
@@ -11003,7 +11003,7 @@
       <c r="E546" s="2"/>
       <c r="F546" s="4"/>
     </row>
-    <row r="547" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>611</v>
       </c>
@@ -11105,7 +11105,7 @@
       <c r="E556" s="2"/>
       <c r="F556" s="4"/>
     </row>
-    <row r="557" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>622</v>
       </c>
@@ -11131,7 +11131,7 @@
       <c r="E558" s="2"/>
       <c r="F558" s="4"/>
     </row>
-    <row r="559" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>1221</v>
       </c>
@@ -11471,7 +11471,7 @@
       <c r="E582" s="2"/>
       <c r="F582" s="4"/>
     </row>
-    <row r="583" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
         <v>1223</v>
       </c>
@@ -11641,7 +11641,7 @@
       <c r="E594" s="2"/>
       <c r="F594" s="4"/>
     </row>
-    <row r="595" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>668</v>
       </c>
@@ -11793,7 +11793,7 @@
       <c r="E607" s="3"/>
       <c r="F607" s="5"/>
     </row>
-    <row r="608" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>1241</v>
       </c>
@@ -12063,7 +12063,7 @@
       <c r="E629" s="3"/>
       <c r="F629" s="5"/>
     </row>
-    <row r="630" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>708</v>
       </c>
@@ -12085,7 +12085,7 @@
       <c r="E631" s="3"/>
       <c r="F631" s="5"/>
     </row>
-    <row r="632" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>1212</v>
       </c>
@@ -12099,7 +12099,7 @@
       </c>
       <c r="F632" s="4"/>
     </row>
-    <row r="633" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
         <v>712</v>
       </c>
@@ -12165,7 +12165,7 @@
       <c r="E637" s="3"/>
       <c r="F637" s="5"/>
     </row>
-    <row r="638" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>721</v>
       </c>
@@ -12205,7 +12205,7 @@
       <c r="E640" s="2"/>
       <c r="F640" s="4"/>
     </row>
-    <row r="641" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
         <v>727</v>
       </c>
@@ -12217,7 +12217,7 @@
       <c r="E641" s="3"/>
       <c r="F641" s="5"/>
     </row>
-    <row r="642" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>729</v>
       </c>
@@ -12803,7 +12803,7 @@
       <c r="E689" s="3"/>
       <c r="F689" s="5"/>
     </row>
-    <row r="690" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
         <v>783</v>
       </c>
@@ -12815,7 +12815,7 @@
       <c r="E690" s="2"/>
       <c r="F690" s="4"/>
     </row>
-    <row r="691" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
         <v>1213</v>
       </c>
@@ -12845,7 +12845,7 @@
       </c>
       <c r="F692" s="4"/>
     </row>
-    <row r="693" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A693" s="3" t="s">
         <v>787</v>
       </c>
@@ -15421,7 +15421,7 @@
       <c r="E875" s="3"/>
       <c r="F875" s="5"/>
     </row>
-    <row r="876" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
         <v>907</v>
       </c>
@@ -15443,7 +15443,7 @@
       <c r="E877" s="3"/>
       <c r="F877" s="5"/>
     </row>
-    <row r="878" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
         <v>910</v>
       </c>
@@ -15455,7 +15455,7 @@
       <c r="E878" s="2"/>
       <c r="F878" s="4"/>
     </row>
-    <row r="879" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A879" s="3" t="s">
         <v>911</v>
       </c>
@@ -15667,7 +15667,7 @@
       <c r="E899" s="3"/>
       <c r="F899" s="5"/>
     </row>
-    <row r="900" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
         <v>933</v>
       </c>
@@ -15909,7 +15909,7 @@
       <c r="E919" s="3"/>
       <c r="F919" s="5"/>
     </row>
-    <row r="920" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2" t="s">
         <v>955</v>
       </c>
@@ -15931,7 +15931,7 @@
       <c r="E921" s="3"/>
       <c r="F921" s="5"/>
     </row>
-    <row r="922" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2" t="s">
         <v>958</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="978" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2" t="s">
         <v>1015</v>
       </c>
@@ -16677,7 +16677,7 @@
       <c r="E983" s="3"/>
       <c r="F983" s="5"/>
     </row>
-    <row r="984" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2" t="s">
         <v>1023</v>
       </c>
@@ -16749,7 +16749,7 @@
       </c>
       <c r="F988" s="4"/>
     </row>
-    <row r="989" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A989" s="3" t="s">
         <v>1029</v>
       </c>
@@ -16921,7 +16921,7 @@
       <c r="E1002" s="2"/>
       <c r="F1002" s="4"/>
     </row>
-    <row r="1003" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="3" t="s">
         <v>1047</v>
       </c>
@@ -16959,7 +16959,7 @@
       </c>
       <c r="F1005" s="5"/>
     </row>
-    <row r="1006" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="2" t="s">
         <v>1051</v>
       </c>
@@ -17151,7 +17151,7 @@
       <c r="E1024" s="2"/>
       <c r="F1024" s="4"/>
     </row>
-    <row r="1025" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="3" t="s">
         <v>1071</v>
       </c>
@@ -17303,7 +17303,7 @@
       <c r="E1039" s="3"/>
       <c r="F1039" s="5"/>
     </row>
-    <row r="1040" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1040" s="2" t="s">
         <v>1087</v>
       </c>
@@ -17377,7 +17377,7 @@
       </c>
       <c r="F1045" s="5"/>
     </row>
-    <row r="1046" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1046" s="2" t="s">
         <v>1227</v>
       </c>
@@ -17825,7 +17825,7 @@
       <c r="E1080" s="2"/>
       <c r="F1080" s="4"/>
     </row>
-    <row r="1081" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1081" s="3" t="s">
         <v>1135</v>
       </c>
@@ -17851,7 +17851,7 @@
       </c>
       <c r="F1082" s="4"/>
     </row>
-    <row r="1083" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1083" s="3" t="s">
         <v>1138</v>
       </c>
@@ -18059,7 +18059,7 @@
       <c r="E1098" s="2"/>
       <c r="F1098" s="4"/>
     </row>
-    <row r="1099" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1099" s="3" t="s">
         <v>1159</v>
       </c>
@@ -18097,7 +18097,7 @@
       </c>
       <c r="F1101" s="5"/>
     </row>
-    <row r="1102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1102" s="2" t="s">
         <v>1163</v>
       </c>
@@ -18223,7 +18223,7 @@
       <c r="E1111" s="3"/>
       <c r="F1111" s="5"/>
     </row>
-    <row r="1112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1112" s="2" t="s">
         <v>1176</v>
       </c>
@@ -18307,7 +18307,7 @@
       <c r="E1118" s="2"/>
       <c r="F1118" s="4"/>
     </row>
-    <row r="1119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1119" s="3" t="s">
         <v>1185</v>
       </c>
@@ -18319,7 +18319,7 @@
       <c r="E1119" s="3"/>
       <c r="F1119" s="5"/>
     </row>
-    <row r="1120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1120" s="2" t="s">
         <v>1187</v>
       </c>
@@ -18451,7 +18451,7 @@
       <c r="E1132" s="2"/>
       <c r="F1132" s="4"/>
     </row>
-    <row r="1133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1133" s="3" t="s">
         <v>1201</v>
       </c>
@@ -18473,7 +18473,7 @@
       <c r="E1134" s="2"/>
       <c r="F1134" s="4"/>
     </row>
-    <row r="1135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1135" s="3" t="s">
         <v>1204</v>
       </c>
@@ -18495,7 +18495,7 @@
       <c r="E1136" s="2"/>
       <c r="F1136" s="4"/>
     </row>
-    <row r="1137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1137" s="3" t="s">
         <v>1207</v>
       </c>
@@ -18507,7 +18507,7 @@
       <c r="E1137" s="3"/>
       <c r="F1137" s="5"/>
     </row>
-    <row r="1138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1138" s="2" t="s">
         <v>1209</v>
       </c>
@@ -18519,7 +18519,7 @@
       <c r="E1138" s="2"/>
       <c r="F1138" s="4"/>
     </row>
-    <row r="1139" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1139" s="3" t="s">
         <v>1224</v>
       </c>
@@ -18538,6 +18538,11 @@
   </sheetData>
   <autoFilter ref="A1:F1139" xr:uid="{6B4DAB66-6475-4991-9980-3F03099552B5}">
     <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
